--- a/用例数据/深权/虚拟股东分配/测试结果.xlsx
+++ b/用例数据/深权/虚拟股东分配/测试结果.xlsx
@@ -22169,10 +22169,13 @@
   <dimension ref="A1:BC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/用例数据/深权/虚拟股东分配/测试结果.xlsx
+++ b/用例数据/深权/虚拟股东分配/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="深权" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9167" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9167" uniqueCount="496">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1510,6 +1510,9 @@
   <si>
     <t>futuretradinglog</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230224000000</t>
   </si>
 </sst>
 </file>
@@ -1841,16 +1844,16 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>88</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
@@ -2735,7 +2738,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>114</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>119</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>127</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>132</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>136</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>144</v>
       </c>
@@ -3855,7 +3858,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>149</v>
       </c>
@@ -3995,7 +3998,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>153</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>157</v>
       </c>
@@ -4275,19 +4278,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4460,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -4624,7 +4627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -4791,7 +4794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>114</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
@@ -5626,15 +5629,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>105</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>123</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>73</v>
       </c>
@@ -6630,15 +6633,15 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="54" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -7215,7 +7218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>105</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -9035,7 +9038,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -9280,7 +9283,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>132</v>
       </c>
@@ -9525,7 +9528,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
@@ -9770,7 +9773,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
@@ -10015,7 +10018,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>144</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -10505,7 +10508,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>153</v>
       </c>
@@ -10750,7 +10753,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>157</v>
       </c>
@@ -11010,7 +11013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>448</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>450</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>453</v>
       </c>
@@ -11790,7 +11793,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>456</v>
       </c>
@@ -12050,7 +12053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>458</v>
       </c>
@@ -12310,7 +12313,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>460</v>
       </c>
@@ -12570,7 +12573,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>462</v>
       </c>
@@ -12830,347 +12833,347 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13186,15 +13189,15 @@
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -13379,7 +13382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -13534,7 +13537,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>88</v>
       </c>
@@ -13689,7 +13692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -13844,7 +13847,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -13999,7 +14002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -14154,7 +14157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>114</v>
       </c>
@@ -14309,7 +14312,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
@@ -14464,7 +14467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -14619,7 +14622,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>127</v>
       </c>
@@ -14774,7 +14777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
@@ -14929,7 +14932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>136</v>
       </c>
@@ -15084,7 +15087,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -15239,7 +15242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>144</v>
       </c>
@@ -15394,7 +15397,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>149</v>
       </c>
@@ -15549,7 +15552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>153</v>
       </c>
@@ -15704,7 +15707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>157</v>
       </c>
@@ -15859,18 +15862,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -16187,7 +16190,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -16447,7 +16450,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -16707,7 +16710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -16967,7 +16970,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>105</v>
       </c>
@@ -17227,7 +17230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -17487,7 +17490,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
@@ -17747,7 +17750,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
@@ -18007,7 +18010,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>123</v>
       </c>
@@ -18267,7 +18270,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
@@ -18527,7 +18530,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>132</v>
       </c>
@@ -18787,7 +18790,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
@@ -19047,7 +19050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>140</v>
       </c>
@@ -19307,7 +19310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>144</v>
       </c>
@@ -19567,7 +19570,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>149</v>
       </c>
@@ -19827,7 +19830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
@@ -20087,7 +20090,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>157</v>
       </c>
@@ -20347,461 +20350,461 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20812,13 +20815,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>341</v>
       </c>
@@ -20988,9 +20991,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>65</v>
@@ -21002,19 +21005,19 @@
         <v>294</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>295</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>66</v>
@@ -21140,7 +21143,7 @@
         <v>299</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>299</v>
@@ -21155,9 +21158,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>65</v>
@@ -21169,19 +21172,19 @@
         <v>294</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>295</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>66</v>
@@ -21307,7 +21310,7 @@
         <v>299</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>299</v>
@@ -21322,9 +21325,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>65</v>
@@ -21336,19 +21339,19 @@
         <v>294</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>295</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>66</v>
@@ -21474,7 +21477,7 @@
         <v>299</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>299</v>
@@ -21489,9 +21492,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>65</v>
@@ -21530,10 +21533,10 @@
         <v>296</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>71</v>
@@ -21545,10 +21548,10 @@
         <v>77</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>77</v>
@@ -21566,7 +21569,7 @@
         <v>299</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>84</v>
@@ -21590,7 +21593,7 @@
         <v>299</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>74</v>
@@ -21602,7 +21605,7 @@
         <v>77</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>77</v>
@@ -21641,7 +21644,7 @@
         <v>299</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>299</v>
@@ -21656,9 +21659,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>65</v>
@@ -21670,19 +21673,19 @@
         <v>294</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>66</v>
@@ -21697,10 +21700,10 @@
         <v>296</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>71</v>
@@ -21808,7 +21811,7 @@
         <v>299</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>299</v>
@@ -21823,9 +21826,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>65</v>
@@ -21837,19 +21840,19 @@
         <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>295</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>66</v>
@@ -21864,10 +21867,10 @@
         <v>296</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>71</v>
@@ -21900,7 +21903,7 @@
         <v>299</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>84</v>
@@ -21936,7 +21939,7 @@
         <v>77</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AN7" s="1" t="s">
         <v>77</v>
@@ -21975,7 +21978,7 @@
         <v>299</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>299</v>
@@ -21990,9 +21993,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>65</v>
@@ -22004,19 +22007,19 @@
         <v>294</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>295</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>66</v>
@@ -22031,10 +22034,10 @@
         <v>296</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>71</v>
@@ -22046,10 +22049,10 @@
         <v>77</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>77</v>
@@ -22067,7 +22070,7 @@
         <v>299</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>84</v>
@@ -22091,7 +22094,7 @@
         <v>299</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>74</v>
@@ -22103,7 +22106,7 @@
         <v>77</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AN8" s="1" t="s">
         <v>77</v>
@@ -22142,7 +22145,7 @@
         <v>299</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>299</v>
@@ -22168,16 +22171,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -22344,7 +22347,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -22493,7 +22496,7 @@
         <v>299</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>299</v>
@@ -22508,7 +22511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -22657,7 +22660,7 @@
         <v>299</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AZ3" s="1" t="s">
         <v>299</v>
@@ -22672,7 +22675,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -22821,7 +22824,7 @@
         <v>299</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AZ4" s="1" t="s">
         <v>299</v>
@@ -22836,7 +22839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -22985,7 +22988,7 @@
         <v>299</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AZ5" s="1" t="s">
         <v>299</v>
@@ -23000,7 +23003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
@@ -23149,7 +23152,7 @@
         <v>299</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AZ6" s="1" t="s">
         <v>299</v>
@@ -23164,7 +23167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
@@ -23313,7 +23316,7 @@
         <v>299</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AZ7" s="1" t="s">
         <v>299</v>
@@ -23328,7 +23331,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -23477,7 +23480,7 @@
         <v>299</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AZ8" s="1" t="s">
         <v>299</v>
@@ -23507,9 +23510,9 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -23622,7 +23625,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -23729,7 +23732,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
@@ -23836,7 +23839,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -23943,7 +23946,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
@@ -24050,7 +24053,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -24157,7 +24160,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -24264,7 +24267,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
@@ -24371,7 +24374,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>99</v>
       </c>
@@ -24492,13 +24495,13 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -24809,7 +24812,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>405</v>
       </c>
@@ -25063,7 +25066,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>420</v>
       </c>
@@ -25317,7 +25320,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>421</v>
       </c>
@@ -25571,7 +25574,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>422</v>
       </c>
@@ -25825,7 +25828,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>425</v>
       </c>
@@ -26079,7 +26082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>426</v>
       </c>
@@ -26333,7 +26336,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>427</v>
       </c>
@@ -26587,7 +26590,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>428</v>
       </c>
@@ -26841,7 +26844,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>430</v>
       </c>
@@ -27080,7 +27083,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>435</v>
       </c>
@@ -27319,7 +27322,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>437</v>
       </c>
@@ -27558,7 +27561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>438</v>
       </c>
@@ -27797,7 +27800,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>441</v>
       </c>
@@ -28036,7 +28039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>442</v>
       </c>
@@ -28275,7 +28278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>443</v>
       </c>
@@ -28514,7 +28517,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>445</v>
       </c>
@@ -28768,7 +28771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>449</v>
       </c>
@@ -29022,7 +29025,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>451</v>
       </c>
@@ -29276,7 +29279,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>454</v>
       </c>
@@ -29530,7 +29533,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>457</v>
       </c>
@@ -29784,7 +29787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>459</v>
       </c>
@@ -30038,7 +30041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>461</v>
       </c>
@@ -30292,7 +30295,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>463</v>
       </c>
